--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="525" windowWidth="21045" windowHeight="19260" activeTab="4"/>
+    <workbookView xWindow="7695" yWindow="525" windowWidth="21045" windowHeight="19260" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table Tennis" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
   <si>
     <t>Contingent</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>100m</t>
+  </si>
+  <si>
+    <t>Mokhtar Dahari</t>
   </si>
 </sst>
 </file>
@@ -238,10 +241,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,14 +580,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -657,14 +660,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -764,14 +767,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -844,14 +847,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -949,10 +952,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1016,7 +1019,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1054,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1064,7 +1067,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1115,14 +1118,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1195,10 +1198,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1254,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1265,10 +1268,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1283,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="525" windowWidth="21045" windowHeight="19260" activeTab="6"/>
+    <workbookView xWindow="7695" yWindow="525" windowWidth="21045" windowHeight="19260" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table Tennis" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:B8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1058,7 @@
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1106,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1258,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1299,18 +1299,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -1258,7 +1258,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1283,10 +1283,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,10 +1307,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="41">
   <si>
     <t>Contingent</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>Mokhtar Dahari</t>
+  </si>
+  <si>
+    <t>Ariffin 2</t>
+  </si>
+  <si>
+    <t>Ahmad Ali 2</t>
+  </si>
+  <si>
+    <t>Aziz 2</t>
+  </si>
+  <si>
+    <t>Mokhtar Dahari 2</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1313,6 +1325,38 @@
         <v>36</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
